--- a/docs/pictures license.xlsx
+++ b/docs/pictures license.xlsx
@@ -957,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F24"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -971,6 +971,7 @@
     <col min="6" max="6" width="64" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:6" ht="44.25" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="10" t="s">
